--- a/ExcelTestData.xlsx
+++ b/ExcelTestData.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huangxiaocheng\Desktop\python.py\VerySimpleAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD385780-D7DA-4B12-BEB2-17A80F3A2DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F9F819-3F39-47FB-ACF5-ACBAAEFF97CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="1845" windowWidth="26355" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>用例描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,7 +50,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录平台</t>
+    <t>填充内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常优秀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生001填写评语和操行评定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生002填写评语和操行评定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现一般般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,22 +405,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="26.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,10 +437,13 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -425,20 +457,43 @@
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
